--- a/NN_Result.xlsx
+++ b/NN_Result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heca0002\Desktop\urbanisation_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heca0002\DOCUME~1\MobaXterm\slash\FTPRemoteFiles\6\2\GDDC-CV2@40.73.2.254\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,7 +130,11 @@
     <t>10-1</t>
   </si>
   <si>
-    <t>10-2</t>
+    <t>bad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>good</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +169,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -191,6 +201,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,7 +492,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -647,7 +663,18 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/NN_Result.xlsx
+++ b/NN_Result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heca0002\DOCUME~1\MobaXterm\slash\FTPRemoteFiles\6\2\GDDC-CV2@40.73.2.254\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heca0002\DOCUME~1\MobaXterm\slash\FTPRemoteFiles\7\4\GDDC-CV1@40.72.96.175\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>good</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRNet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -723,6 +727,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NN_Result.xlsx
+++ b/NN_Result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,9 @@
   <si>
     <t>HRNet</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-3</t>
   </si>
 </sst>
 </file>
@@ -493,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -737,6 +740,31 @@
       <c r="E29">
         <v>20</v>
       </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/NN_Result.xlsx
+++ b/NN_Result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heca0002\DOCUME~1\MobaXterm\slash\FTPRemoteFiles\7\4\GDDC-CV1@40.72.96.175\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heca0002\DOCUME~1\MobaXterm\slash\FTPRemoteFiles\5\12\GDDC-CV1@40.72.96.175\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,86 @@
   </si>
   <si>
     <t>10-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  LR: 0.001 WD: 0.0001 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  OHEMTHRES: 0.8 OHEMKEEP: 12  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  OHEMTHRES: 0.7 OHEMKEEP: 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0太強, tn=0.98, tp=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0太強, tn=0.98, tp=0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  OHEMTHRES: 0.65 OHEMKEEP: 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR 0.00001 WD: 0.000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0太強, tn=0.97, tp=0.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  OHEMTHRES: 0.6 OHEMKEEP: 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0太強, tn=0.97, tp=0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR 0.0001 WD: 0.000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0太強, tn=0.98, tp=0.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  OHEMTHRES: 0.7 OHEMKEEP: 8, weight 0.9 1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LR 0.0001 WD: 0.000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  OHEMTHRES: 0.65 OHEMKEEP: 8, weight 0.75 1.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  OHEMTHRES: 0.65 OHEMKEEP: 8, weight 0.65,1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  OHEMTHRES: 0.65 OHEMKEEP: 8, weight 0.65, 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ok, tn0.95, tp0.91 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -496,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -507,6 +587,7 @@
     <col min="3" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="13.7265625" customWidth="1"/>
     <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="12" max="12" width="26.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
@@ -764,6 +845,159 @@
       </c>
       <c r="F31" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36">
+        <v>40</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37">
+        <v>40</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" t="s">
+        <v>39</v>
+      </c>
+      <c r="M37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>40</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s">
+        <v>45</v>
+      </c>
+      <c r="M39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>47</v>
+      </c>
+      <c r="M40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>48</v>
+      </c>
+      <c r="M41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>49</v>
+      </c>
+      <c r="M42" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
